--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lgals3bp-Itgb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>42.934631</v>
+        <v>47.63324766666667</v>
       </c>
       <c r="H2">
-        <v>128.803893</v>
+        <v>142.899743</v>
       </c>
       <c r="I2">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="J2">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>6591.71170699927</v>
+        <v>6940.199655925097</v>
       </c>
       <c r="R2">
-        <v>59325.40536299344</v>
+        <v>62461.79690332587</v>
       </c>
       <c r="S2">
-        <v>0.03324804401928892</v>
+        <v>0.03843247145628267</v>
       </c>
       <c r="T2">
-        <v>0.03324804401928892</v>
+        <v>0.03843247145628267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>42.934631</v>
+        <v>47.63324766666667</v>
       </c>
       <c r="H3">
-        <v>128.803893</v>
+        <v>142.899743</v>
       </c>
       <c r="I3">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="J3">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>7247.352946903051</v>
+        <v>8040.478043181029</v>
       </c>
       <c r="R3">
-        <v>65226.17652212746</v>
+        <v>72364.30238862925</v>
       </c>
       <c r="S3">
-        <v>0.03655504374472222</v>
+        <v>0.04452543993105513</v>
       </c>
       <c r="T3">
-        <v>0.03655504374472222</v>
+        <v>0.04452543993105514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>42.934631</v>
+        <v>47.63324766666667</v>
       </c>
       <c r="H4">
-        <v>128.803893</v>
+        <v>142.899743</v>
       </c>
       <c r="I4">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="J4">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>4017.078840628663</v>
+        <v>6103.064857814973</v>
       </c>
       <c r="R4">
-        <v>36153.70956565797</v>
+        <v>54927.58372033475</v>
       </c>
       <c r="S4">
-        <v>0.02026181059774778</v>
+        <v>0.03379670291524928</v>
       </c>
       <c r="T4">
-        <v>0.02026181059774778</v>
+        <v>0.03379670291524929</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>42.934631</v>
+        <v>47.63324766666667</v>
       </c>
       <c r="H5">
-        <v>128.803893</v>
+        <v>142.899743</v>
       </c>
       <c r="I5">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="J5">
-        <v>0.1048104500939054</v>
+        <v>0.1341008591511219</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>2923.432906987357</v>
+        <v>3132.413762834232</v>
       </c>
       <c r="R5">
-        <v>26310.89616288622</v>
+        <v>28191.72386550809</v>
       </c>
       <c r="S5">
-        <v>0.0147455517321465</v>
+        <v>0.01734624484853479</v>
       </c>
       <c r="T5">
-        <v>0.0147455517321465</v>
+        <v>0.01734624484853479</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>436.788482</v>
       </c>
       <c r="I6">
-        <v>0.3554240196315628</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="J6">
-        <v>0.3554240196315627</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>22353.23547465945</v>
+        <v>21213.46902974098</v>
       </c>
       <c r="R6">
-        <v>201179.1192719351</v>
+        <v>190921.2212676689</v>
       </c>
       <c r="S6">
-        <v>0.1127478551960723</v>
+        <v>0.1174729955035541</v>
       </c>
       <c r="T6">
-        <v>0.1127478551960723</v>
+        <v>0.1174729955035541</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>436.788482</v>
       </c>
       <c r="I7">
-        <v>0.3554240196315628</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="J7">
-        <v>0.3554240196315627</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>24576.58862994157</v>
@@ -883,10 +883,10 @@
         <v>221189.2976694741</v>
       </c>
       <c r="S7">
-        <v>0.123962263055984</v>
+        <v>0.1360968110199313</v>
       </c>
       <c r="T7">
-        <v>0.123962263055984</v>
+        <v>0.1360968110199313</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>436.788482</v>
       </c>
       <c r="I8">
-        <v>0.3554240196315628</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="J8">
-        <v>0.3554240196315627</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>13622.3659705108</v>
+        <v>18654.67620045019</v>
       </c>
       <c r="R8">
-        <v>122601.2937345972</v>
+        <v>167892.0858040517</v>
       </c>
       <c r="S8">
-        <v>0.06871007768035214</v>
+        <v>0.1033032688026368</v>
       </c>
       <c r="T8">
-        <v>0.06871007768035213</v>
+        <v>0.1033032688026368</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>436.788482</v>
       </c>
       <c r="I9">
-        <v>0.3554240196315628</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="J9">
-        <v>0.3554240196315627</v>
+        <v>0.4098937442001861</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>9913.689655885286</v>
+        <v>9574.56062369736</v>
       </c>
       <c r="R9">
-        <v>89223.20690296756</v>
+        <v>86171.04561327623</v>
       </c>
       <c r="S9">
-        <v>0.05000382369915434</v>
+        <v>0.0530206688740639</v>
       </c>
       <c r="T9">
-        <v>0.05000382369915433</v>
+        <v>0.0530206688740639</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.85349</v>
+        <v>11.826626</v>
       </c>
       <c r="H10">
-        <v>41.56047</v>
+        <v>35.479878</v>
       </c>
       <c r="I10">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="J10">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>2126.91270633716</v>
+        <v>1723.148215094161</v>
       </c>
       <c r="R10">
-        <v>19142.21435703444</v>
+        <v>15508.33393584745</v>
       </c>
       <c r="S10">
-        <v>0.01072797027976737</v>
+        <v>0.009542210292900186</v>
       </c>
       <c r="T10">
-        <v>0.01072797027976737</v>
+        <v>0.009542210292900187</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.85349</v>
+        <v>11.826626</v>
       </c>
       <c r="H11">
-        <v>41.56047</v>
+        <v>35.479878</v>
       </c>
       <c r="I11">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="J11">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>2338.46499289564</v>
+        <v>1996.330952349869</v>
       </c>
       <c r="R11">
-        <v>21046.18493606076</v>
+        <v>17966.97857114883</v>
       </c>
       <c r="S11">
-        <v>0.01179502236707407</v>
+        <v>0.01105500362341564</v>
       </c>
       <c r="T11">
-        <v>0.01179502236707407</v>
+        <v>0.01105500362341565</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.85349</v>
+        <v>11.826626</v>
       </c>
       <c r="H12">
-        <v>41.56047</v>
+        <v>35.479878</v>
       </c>
       <c r="I12">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="J12">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>1296.16955477877</v>
+        <v>1515.300112060821</v>
       </c>
       <c r="R12">
-        <v>11665.52599300893</v>
+        <v>13637.70100854739</v>
       </c>
       <c r="S12">
-        <v>0.006537771117627466</v>
+        <v>0.008391218004046996</v>
       </c>
       <c r="T12">
-        <v>0.006537771117627465</v>
+        <v>0.008391218004046999</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.85349</v>
+        <v>11.826626</v>
       </c>
       <c r="H13">
-        <v>41.56047</v>
+        <v>35.479878</v>
       </c>
       <c r="I13">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="J13">
-        <v>0.03381863284842061</v>
+        <v>0.03329524618093251</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>943.2886133951001</v>
+        <v>777.7316866894539</v>
       </c>
       <c r="R13">
-        <v>8489.597520555901</v>
+        <v>6999.585180205086</v>
       </c>
       <c r="S13">
-        <v>0.004757869083951698</v>
+        <v>0.004306814260569682</v>
       </c>
       <c r="T13">
-        <v>0.004757869083951698</v>
+        <v>0.004306814260569683</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>207.2564646666666</v>
+        <v>150.1486076666667</v>
       </c>
       <c r="H14">
-        <v>621.7693939999999</v>
+        <v>450.445823</v>
       </c>
       <c r="I14">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677595</v>
       </c>
       <c r="J14">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677596</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>31819.88135625405</v>
+        <v>21876.76394769651</v>
       </c>
       <c r="R14">
-        <v>286378.9322062864</v>
+        <v>196890.8755292686</v>
       </c>
       <c r="S14">
-        <v>0.1604968273867203</v>
+        <v>0.1211460977578473</v>
       </c>
       <c r="T14">
-        <v>0.1604968273867203</v>
+        <v>0.1211460977578473</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>207.2564646666666</v>
+        <v>150.1486076666667</v>
       </c>
       <c r="H15">
-        <v>621.7693939999999</v>
+        <v>450.445823</v>
       </c>
       <c r="I15">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677595</v>
       </c>
       <c r="J15">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677596</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>34984.82961147783</v>
+        <v>25345.04032994732</v>
       </c>
       <c r="R15">
-        <v>314863.4665033005</v>
+        <v>228105.3629695259</v>
       </c>
       <c r="S15">
-        <v>0.1764605623899848</v>
+        <v>0.140352235862182</v>
       </c>
       <c r="T15">
-        <v>0.1764605623899848</v>
+        <v>0.140352235862182</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>207.2564646666666</v>
+        <v>150.1486076666667</v>
       </c>
       <c r="H16">
-        <v>621.7693939999999</v>
+        <v>450.445823</v>
       </c>
       <c r="I16">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677595</v>
       </c>
       <c r="J16">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677596</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>19391.46883074339</v>
+        <v>19237.96372888399</v>
       </c>
       <c r="R16">
-        <v>174523.2194766905</v>
+        <v>173141.6735599559</v>
       </c>
       <c r="S16">
-        <v>0.09780895129236825</v>
+        <v>0.1065333172736774</v>
       </c>
       <c r="T16">
-        <v>0.09780895129236823</v>
+        <v>0.1065333172736774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>207.2564646666666</v>
+        <v>150.1486076666667</v>
       </c>
       <c r="H17">
-        <v>621.7693939999999</v>
+        <v>450.445823</v>
       </c>
       <c r="I17">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677595</v>
       </c>
       <c r="J17">
-        <v>0.5059468974261112</v>
+        <v>0.4227101504677596</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>14112.15969207691</v>
+        <v>9873.934450507671</v>
       </c>
       <c r="R17">
-        <v>127009.4372286922</v>
+        <v>88865.41005456905</v>
       </c>
       <c r="S17">
-        <v>0.07118055635703788</v>
+        <v>0.05467849957405285</v>
       </c>
       <c r="T17">
-        <v>0.07118055635703788</v>
+        <v>0.05467849957405286</v>
       </c>
     </row>
   </sheetData>
